--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H2">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I2">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J2">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N2">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q2">
-        <v>11656.30713192108</v>
+        <v>197.8606964602436</v>
       </c>
       <c r="R2">
-        <v>11656.30713192108</v>
+        <v>1780.746268142193</v>
       </c>
       <c r="S2">
-        <v>0.2863184560421754</v>
+        <v>0.004275753215883283</v>
       </c>
       <c r="T2">
-        <v>0.2863184560421754</v>
+        <v>0.004275753215883282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H3">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I3">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J3">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N3">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P3">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q3">
-        <v>6882.705679786284</v>
+        <v>98.69846879567032</v>
       </c>
       <c r="R3">
-        <v>6882.705679786284</v>
+        <v>888.286219161033</v>
       </c>
       <c r="S3">
-        <v>0.1690626063062854</v>
+        <v>0.002132865712623418</v>
       </c>
       <c r="T3">
-        <v>0.1690626063062854</v>
+        <v>0.002132865712623417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H4">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I4">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J4">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N4">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q4">
-        <v>1190.249783749628</v>
+        <v>17.88956756380933</v>
       </c>
       <c r="R4">
-        <v>1190.249783749628</v>
+        <v>161.006108074284</v>
       </c>
       <c r="S4">
-        <v>0.02923657351602065</v>
+        <v>0.0003865920691181258</v>
       </c>
       <c r="T4">
-        <v>0.02923657351602065</v>
+        <v>0.0003865920691181256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H5">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I5">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J5">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N5">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q5">
-        <v>10552.08759988169</v>
+        <v>154.8379805663863</v>
       </c>
       <c r="R5">
-        <v>10552.08759988169</v>
+        <v>1393.541825097477</v>
       </c>
       <c r="S5">
-        <v>0.2591950774311809</v>
+        <v>0.003346035898951896</v>
       </c>
       <c r="T5">
-        <v>0.2591950774311809</v>
+        <v>0.003346035898951895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H6">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I6">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J6">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N6">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q6">
-        <v>4014.717204668539</v>
+        <v>13880.09256089516</v>
       </c>
       <c r="R6">
-        <v>4014.717204668539</v>
+        <v>124920.8330480564</v>
       </c>
       <c r="S6">
-        <v>0.09861507752646241</v>
+        <v>0.2999476473384897</v>
       </c>
       <c r="T6">
-        <v>0.09861507752646241</v>
+        <v>0.2999476473384896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H7">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I7">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J7">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N7">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P7">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q7">
-        <v>2370.572137005265</v>
+        <v>6923.779745098547</v>
       </c>
       <c r="R7">
-        <v>2370.572137005265</v>
+        <v>62314.01770588693</v>
       </c>
       <c r="S7">
-        <v>0.05822929565275486</v>
+        <v>0.1496223051914764</v>
       </c>
       <c r="T7">
-        <v>0.05822929565275486</v>
+        <v>0.1496223051914763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H8">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I8">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J8">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N8">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q8">
-        <v>409.9511303701456</v>
+        <v>1254.968056326205</v>
       </c>
       <c r="R8">
-        <v>409.9511303701456</v>
+        <v>11294.71250693585</v>
       </c>
       <c r="S8">
-        <v>0.0100697908327146</v>
+        <v>0.02711975545757643</v>
       </c>
       <c r="T8">
-        <v>0.0100697908327146</v>
+        <v>0.02711975545757641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>598.661662</v>
+      </c>
+      <c r="H9">
+        <v>1795.984986</v>
+      </c>
+      <c r="I9">
+        <v>0.7114169116232693</v>
+      </c>
+      <c r="J9">
+        <v>0.7114169116232691</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.14382633333333</v>
+      </c>
+      <c r="N9">
+        <v>54.431479</v>
+      </c>
+      <c r="O9">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="P9">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="Q9">
+        <v>10862.0132277527</v>
+      </c>
+      <c r="R9">
+        <v>97758.11904977429</v>
+      </c>
+      <c r="S9">
+        <v>0.2347272036357269</v>
+      </c>
+      <c r="T9">
+        <v>0.2347272036357269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.049701</v>
+      </c>
+      <c r="I10">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J10">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.18520366666667</v>
+      </c>
+      <c r="N10">
+        <v>69.555611</v>
+      </c>
+      <c r="O10">
+        <v>0.4216200689608106</v>
+      </c>
+      <c r="P10">
+        <v>0.4216200689608105</v>
+      </c>
+      <c r="Q10">
+        <v>15.84091171359011</v>
+      </c>
+      <c r="R10">
+        <v>142.568205422311</v>
+      </c>
+      <c r="S10">
+        <v>0.0003423207863594856</v>
+      </c>
+      <c r="T10">
+        <v>0.0003423207863594855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.049701</v>
+      </c>
+      <c r="I11">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J11">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.56543033333333</v>
+      </c>
+      <c r="N11">
+        <v>34.696291</v>
+      </c>
+      <c r="O11">
+        <v>0.210315924104302</v>
+      </c>
+      <c r="P11">
+        <v>0.2103159241043019</v>
+      </c>
+      <c r="Q11">
+        <v>7.901891373221223</v>
+      </c>
+      <c r="R11">
+        <v>71.11702235899101</v>
+      </c>
+      <c r="S11">
+        <v>0.0001707592162317076</v>
+      </c>
+      <c r="T11">
+        <v>0.0001707592162317076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.049701</v>
+      </c>
+      <c r="I12">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J12">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.096289333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.288868</v>
+      </c>
+      <c r="O12">
+        <v>0.03812076296541245</v>
+      </c>
+      <c r="P12">
+        <v>0.03812076296541244</v>
+      </c>
+      <c r="Q12">
+        <v>1.432255447607556</v>
+      </c>
+      <c r="R12">
+        <v>12.890299028468</v>
+      </c>
+      <c r="S12">
+        <v>3.095092125739512E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.09509212573951E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.049701</v>
+      </c>
+      <c r="I13">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J13">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.14382633333333</v>
+      </c>
+      <c r="N13">
+        <v>54.431479</v>
+      </c>
+      <c r="O13">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="P13">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="Q13">
+        <v>12.39647299308656</v>
+      </c>
+      <c r="R13">
+        <v>111.568256937779</v>
+      </c>
+      <c r="S13">
+        <v>0.000267886751709935</v>
+      </c>
+      <c r="T13">
+        <v>0.000267886751709935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>233.627271</v>
+      </c>
+      <c r="H14">
+        <v>700.881813</v>
+      </c>
+      <c r="I14">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J14">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.18520366666667</v>
+      </c>
+      <c r="N14">
+        <v>69.555611</v>
+      </c>
+      <c r="O14">
+        <v>0.4216200689608106</v>
+      </c>
+      <c r="P14">
+        <v>0.4216200689608105</v>
+      </c>
+      <c r="Q14">
+        <v>5416.695860222527</v>
+      </c>
+      <c r="R14">
+        <v>48750.26274200274</v>
+      </c>
+      <c r="S14">
+        <v>0.1170543476200782</v>
+      </c>
+      <c r="T14">
+        <v>0.1170543476200781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>204.9789913878</v>
-      </c>
-      <c r="H9">
-        <v>204.9789913878</v>
-      </c>
-      <c r="I9">
-        <v>0.2561872867043377</v>
-      </c>
-      <c r="J9">
-        <v>0.2561872867043377</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>17.7305828858592</v>
-      </c>
-      <c r="N9">
-        <v>17.7305828858592</v>
-      </c>
-      <c r="O9">
-        <v>0.3484682001235868</v>
-      </c>
-      <c r="P9">
-        <v>0.3484682001235868</v>
-      </c>
-      <c r="Q9">
-        <v>3634.396996661207</v>
-      </c>
-      <c r="R9">
-        <v>3634.396996661207</v>
-      </c>
-      <c r="S9">
-        <v>0.08927312269240585</v>
-      </c>
-      <c r="T9">
-        <v>0.08927312269240585</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>233.627271</v>
+      </c>
+      <c r="H15">
+        <v>700.881813</v>
+      </c>
+      <c r="I15">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J15">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.56543033333333</v>
+      </c>
+      <c r="N15">
+        <v>34.696291</v>
+      </c>
+      <c r="O15">
+        <v>0.210315924104302</v>
+      </c>
+      <c r="P15">
+        <v>0.2103159241043019</v>
+      </c>
+      <c r="Q15">
+        <v>2701.999926717287</v>
+      </c>
+      <c r="R15">
+        <v>24317.99934045558</v>
+      </c>
+      <c r="S15">
+        <v>0.05838999398397047</v>
+      </c>
+      <c r="T15">
+        <v>0.05838999398397045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>233.627271</v>
+      </c>
+      <c r="H16">
+        <v>700.881813</v>
+      </c>
+      <c r="I16">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J16">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.096289333333333</v>
+      </c>
+      <c r="N16">
+        <v>6.288868</v>
+      </c>
+      <c r="O16">
+        <v>0.03812076296541245</v>
+      </c>
+      <c r="P16">
+        <v>0.03812076296541244</v>
+      </c>
+      <c r="Q16">
+        <v>489.750356173076</v>
+      </c>
+      <c r="R16">
+        <v>4407.753205557684</v>
+      </c>
+      <c r="S16">
+        <v>0.01058346451746051</v>
+      </c>
+      <c r="T16">
+        <v>0.0105834645174605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>233.627271</v>
+      </c>
+      <c r="H17">
+        <v>700.881813</v>
+      </c>
+      <c r="I17">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J17">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.14382633333333</v>
+      </c>
+      <c r="N17">
+        <v>54.431479</v>
+      </c>
+      <c r="O17">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="P17">
+        <v>0.3299432439694752</v>
+      </c>
+      <c r="Q17">
+        <v>4238.892631754603</v>
+      </c>
+      <c r="R17">
+        <v>38150.03368579143</v>
+      </c>
+      <c r="S17">
+        <v>0.09160211768308649</v>
+      </c>
+      <c r="T17">
+        <v>0.09160211768308647</v>
       </c>
     </row>
   </sheetData>
